--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Desktop/NYC Index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA131C40-D374-AF4E-8356-D84D9C0E24AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467094C-1E1C-4548-BDAB-EBC6EA17B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="3600" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
+    <workbookView xWindow="7200" yWindow="1320" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
-    <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Research" sheetId="3" r:id="rId2"/>
+    <sheet name="Workflow" sheetId="4" r:id="rId3"/>
+    <sheet name="Links" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>SDG</t>
   </si>
@@ -309,13 +311,85 @@
   </si>
   <si>
     <t>Proportion of population reporting having personally felt discriminated against or harassed in the previous 12 months on the basis of a ground of discrimination prohibited under international human rights law</t>
+  </si>
+  <si>
+    <t>Vision Zero in New York City</t>
+  </si>
+  <si>
+    <t>https://www1.nyc.gov/content/visionzero/pages/</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>https://www1.nyc.gov/site/severeweather/index.page</t>
+  </si>
+  <si>
+    <t>voting https://www.voting.nyc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check UNSDSN State Index </t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check UNSDSN Cities Index </t>
+  </si>
+  <si>
+    <t>Check Kaggle</t>
+  </si>
+  <si>
+    <t>Check NYC Open Data</t>
+  </si>
+  <si>
+    <t>Workflow to finding data</t>
+  </si>
+  <si>
+    <t>Check https://sdg.data.gov/</t>
+  </si>
+  <si>
+    <t>Check https://www.data2go.nyc/map/?id=107*36047015900*major_felonies_per_1000_cd!undefined!ns*!other_pop_cd_506~ahdi_puma_1~sch_enrol_cd_112~age_pyramid_male_85_plus_cd_20~median_household_income_puma_397~median_personal_earnings_puma_400~dis_y_perc_puma_102~poverty_ceo_cd_417~unemployment_cd_408~pre_k_cd_107!*air_qual_cd~ahdi_puma*family_homeless_cd_245#10/40.8278/-73.9593</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>BIC Issued Violations</t>
+  </si>
+  <si>
+    <t>BIC Complaints Inquiries</t>
+  </si>
+  <si>
+    <t>https://www.themarshallproject.org/search?q=New+York</t>
+  </si>
+  <si>
+    <t>Crime and Enforcement Activity Reports</t>
+  </si>
+  <si>
+    <t>https://www1.nyc.gov/site/nypd/stats/reports-analysis/crime-enf.page</t>
+  </si>
+  <si>
+    <t>Hate Crimes NYPD https://www1.nyc.gov/site/nypd/stats/reports-analysis/hate-crimes.page</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +405,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,10 +456,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,8 +471,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,538 +790,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1244,6 +1339,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477931A-9538-2D4F-8C29-9AF6DC41AF4B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://data.cityofnewyork.us/Business/BIC-Issued-Violations/upii-frjc" xr:uid="{BD19934C-5747-5444-BBD6-DBD7A9769628}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://data.cityofnewyork.us/Business/BIC-Complaints-Inquiries/p2d7-vcsb" xr:uid="{7D9C5FF4-6630-1247-B0B4-5E237583AB4D}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{09A08114-9C74-5245-8A4A-4A65CE068271}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B742D31-B421-2342-94DA-F250825E0878}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CD16E-9469-4F48-86A9-EFB63C765DF7}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467094C-1E1C-4548-BDAB-EBC6EA17B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A2D1A-D0DA-2244-9FBC-A98DD3602FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1320" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
+    <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
     <t>SDG</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>hateCrime</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>NYC Open Data + The Official Website of the City of New York</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Data updated in API?</t>
+  </si>
+  <si>
+    <t>Yes, for the last few years</t>
+  </si>
+  <si>
+    <t>https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78 and https://www1.nyc.gov/site/nypd/stats/reports-analysis/hate-crimes-archive-2017.page</t>
   </si>
 </sst>
 </file>
@@ -790,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +828,7 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -845,31 +869,37 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>16</v>
       </c>
@@ -889,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>16</v>
       </c>
@@ -909,7 +939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>16</v>
       </c>
@@ -929,7 +959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>16</v>
       </c>
@@ -949,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>16</v>
       </c>
@@ -969,7 +999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>16</v>
       </c>
@@ -989,7 +1019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>16</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>16</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>16</v>
       </c>
@@ -1049,7 +1079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>16</v>
       </c>
@@ -1069,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>16</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>16</v>
       </c>
@@ -1109,7 +1139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>16</v>
       </c>
@@ -1129,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>16</v>
       </c>
@@ -1149,7 +1179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>16</v>
       </c>
@@ -1169,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1189,7 +1219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1209,7 +1239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1229,7 +1259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -1249,7 +1279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>16</v>
       </c>
@@ -1269,7 +1299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>16</v>
       </c>
@@ -1289,7 +1319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>16</v>
       </c>
@@ -1309,7 +1339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1331,9 +1361,36 @@
       <c r="G24" t="s">
         <v>91</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24">
+        <v>2021</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M24" r:id="rId1" display="https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78" xr:uid="{3AC0071F-8D70-BB44-A8A5-C1AA090D5BE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A2D1A-D0DA-2244-9FBC-A98DD3602FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C5A21-C78D-B441-88F9-C8A506838CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
@@ -34,6 +34,59 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Polina Polskaia</author>
+  </authors>
+  <commentList>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{80662FE4-A53D-0849-B341-B9EAAF4B7189}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Polina Polskaia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Check with dashboard 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://app.powerbigov.us/view?r=eyJrIjoiYjg1NWI3YjgtYzkzOS00Nzc0LTkwMDAtNTgzM2I2M2JmYWE1IiwidCI6IjJiOWY1N2ViLTc4ZDEtNDZmYi1iZTgzLWEyYWZkZDdjNjA0MyJ9</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
@@ -413,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,6 +493,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -813,12 +879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R25" sqref="R25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,6 +1458,7 @@
     <hyperlink ref="M24" r:id="rId1" display="https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78" xr:uid="{3AC0071F-8D70-BB44-A8A5-C1AA090D5BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C5A21-C78D-B441-88F9-C8A506838CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFBD05-53A4-0240-A34C-ADB6D1B5C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
@@ -438,9 +438,6 @@
     <t>Data Cleaning</t>
   </si>
   <si>
-    <t>hateCrime</t>
-  </si>
-  <si>
     <t>2017-2021</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78 and https://www1.nyc.gov/site/nypd/stats/reports-analysis/hate-crimes-archive-2017.page</t>
+  </si>
+  <si>
+    <t>hate_Crimes</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1428,28 +1428,28 @@
         <v>91</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" t="s">
         <v>116</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" t="s">
-        <v>117</v>
       </c>
       <c r="L24">
         <v>2021</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFBD05-53A4-0240-A34C-ADB6D1B5C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCEEAA7-A8DA-B746-AE7C-2809B799709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
+    <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" activeTab="1" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>SDG</t>
   </si>
@@ -460,6 +460,28 @@
   </si>
   <si>
     <t>hate_Crimes</t>
+  </si>
+  <si>
+    <t>https://nycehs.github.io/ehs-data-portal-frontend-temp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NYC EHS</t>
+  </si>
+  <si>
+    <t>nyc map https://github.com/nycehs/Map</t>
+  </si>
+  <si>
+    <t>prisoners https://www.prisonpolicy.org/origin/ny/police_precincts.html</t>
+  </si>
+  <si>
+    <t>https://www.policymap.com/maps</t>
+  </si>
+  <si>
+    <t>policy everything</t>
+  </si>
+  <si>
+    <t>nypd complaint https://data.cityofnewyork.us/Public-Safety/NYPD-Complaint-Data-Historic/qgea-i56i</t>
   </si>
 </sst>
 </file>
@@ -550,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +587,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -1464,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477931A-9538-2D4F-8C29-9AF6DC41AF4B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,6 +1544,37 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B742D31-B421-2342-94DA-F250825E0878}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1669,14 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCEEAA7-A8DA-B746-AE7C-2809B799709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88031359-1FCD-574A-8504-0A587E945564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="900" windowWidth="27640" windowHeight="15720" activeTab="1" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
+    <workbookView xWindow="3680" yWindow="1760" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -34,61 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Polina Polskaia</author>
-  </authors>
-  <commentList>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{80662FE4-A53D-0849-B341-B9EAAF4B7189}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Polina Polskaia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Check with dashboard 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://app.powerbigov.us/view?r=eyJrIjoiYjg1NWI3YjgtYzkzOS00Nzc0LTkwMDAtNTgzM2I2M2JmYWE1IiwidCI6IjJiOWY1N2ViLTc4ZDEtNDZmYi1iZTgzLWEyYWZkZDdjNjA0MyJ9</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
   <si>
     <t>SDG</t>
   </si>
@@ -105,18 +52,12 @@
     <t>Years Used for Trend Evaluation</t>
   </si>
   <si>
-    <t>Reference Year</t>
-  </si>
-  <si>
     <t>Dwldlink</t>
   </si>
   <si>
     <t>Has Longitudinal data</t>
   </si>
   <si>
-    <t>LNOB indicator</t>
-  </si>
-  <si>
     <t>Optimum (= 100)</t>
   </si>
   <si>
@@ -457,9 +398,6 @@
   </si>
   <si>
     <t>https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78 and https://www1.nyc.gov/site/nypd/stats/reports-analysis/hate-crimes-archive-2017.page</t>
-  </si>
-  <si>
-    <t>hate_Crimes</t>
   </si>
   <si>
     <t>https://nycehs.github.io/ehs-data-portal-frontend-temp/</t>
@@ -482,13 +420,43 @@
   </si>
   <si>
     <t>nypd complaint https://data.cityofnewyork.us/Public-Safety/NYPD-Complaint-Data-Historic/qgea-i56i</t>
+  </si>
+  <si>
+    <t>hate_crimes</t>
+  </si>
+  <si>
+    <t>Years Availiable</t>
+  </si>
+  <si>
+    <t>2017-2019</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/sdgs/metadata/?Text=&amp;Goal=16&amp;Target=16.a</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/wiki/display/SDGeHandbook/Indicator+16.a.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/sdgs/metadata/?Text=&amp;Goal=16&amp;Target=16.a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/sdgs/UNSDG/GlobalRegionalTrends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/sdgs/UNSDG/countryprofiles/usa#goal-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ohchr.org/EN/Issues/Indicators/Pages/SDGindicators.aspx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unstats.un.org/sdgs/UNSDG/IndDatabasePage </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,21 +484,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +495,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA09E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -590,6 +557,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,6 +569,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA09E"/>
+      <color rgb="FFFF8475"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -904,45 +882,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
-  <dimension ref="A1:W24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="4"/>
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -954,340 +933,337 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1295,19 +1271,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1315,19 +1291,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" t="s">
         <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1335,19 +1311,19 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1355,19 +1331,19 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1375,19 +1351,19 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" t="s">
         <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1395,86 +1371,86 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E24" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="F24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="K24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L24">
-        <v>2021</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P24" t="s">
-        <v>118</v>
+      <c r="P24" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1459,6 @@
     <hyperlink ref="M24" r:id="rId1" display="https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78" xr:uid="{3AC0071F-8D70-BB44-A8A5-C1AA090D5BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1491,90 +1466,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477931A-9538-2D4F-8C29-9AF6DC41AF4B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1592,22 +1567,22 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1655,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,12 +1638,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1686,20 +1661,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CD16E-9469-4F48-86A9-EFB63C765DF7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{DC416121-6628-3B4B-B69D-B4CE6507ED97}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{429448E6-522E-D640-85A8-27476865D43B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{51845C3D-F380-6940-BB74-E736C469576F}"/>
+    <hyperlink ref="B5" r:id="rId4" location="goal-16 " xr:uid="{D60BABF6-C08B-DA4A-B87A-17329FA946FF}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{A7C5BCF7-6AC9-464B-81AA-ECA2C2B86491}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{53C9954C-9CBD-4C4D-B0EC-D377077F5EAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NYCindexCodebook.xlsx
+++ b/NYCindexCodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inmilk306/Documents/GitHub/NYCindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88031359-1FCD-574A-8504-0A587E945564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E317D8-FD32-1847-BB36-2413A65CEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1760" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
+    <workbookView xWindow="1920" yWindow="3020" windowWidth="27640" windowHeight="15720" xr2:uid="{E79D4226-1801-734F-AC68-2051A7BCBA84}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
   <si>
     <t>SDG</t>
   </si>
@@ -431,9 +431,6 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t>https://unstats.un.org/sdgs/metadata/?Text=&amp;Goal=16&amp;Target=16.a</t>
-  </si>
-  <si>
     <t>https://unstats.un.org/wiki/display/SDGeHandbook/Indicator+16.a.1</t>
   </si>
   <si>
@@ -450,6 +447,45 @@
   </si>
   <si>
     <t xml:space="preserve">https://unstats.un.org/sdgs/UNSDG/IndDatabasePage </t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/sdgs/UNSDG/IndDatabasePage</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=FOI+in+USA+1966&amp;oq=FOI+in+USA+1966&amp;aqs=chrome..69i57.7833j0j7&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sdg-tracker.org/peace-justice </t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Precinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">press </t>
+  </si>
+  <si>
+    <t>https://rsf.org/en/ranking/2020</t>
+  </si>
+  <si>
+    <t>https://dashboards.sdgindex.org/profiles/united-states</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>https://www1.nyc.gov/site/records/index.page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriage </t>
+  </si>
+  <si>
+    <t>https://www.nycmarriageindex.com/</t>
   </si>
 </sst>
 </file>
@@ -485,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,12 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA09E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,9 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -883,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5348E3-1229-414F-9BA4-BB79CA44B88E}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,10 +925,10 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="6" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -917,56 +947,59 @@
       <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>16</v>
       </c>
@@ -982,11 +1015,11 @@
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>16</v>
       </c>
@@ -1002,11 +1035,11 @@
       <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>16</v>
       </c>
@@ -1022,11 +1055,11 @@
       <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>16</v>
       </c>
@@ -1042,11 +1075,11 @@
       <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>16</v>
       </c>
@@ -1062,11 +1095,11 @@
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>16</v>
       </c>
@@ -1082,11 +1115,11 @@
       <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>16</v>
       </c>
@@ -1102,11 +1135,11 @@
       <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>16</v>
       </c>
@@ -1122,11 +1155,11 @@
       <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>16</v>
       </c>
@@ -1142,11 +1175,11 @@
       <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>16</v>
       </c>
@@ -1162,11 +1195,11 @@
       <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>16</v>
       </c>
@@ -1182,11 +1215,11 @@
       <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>16</v>
       </c>
@@ -1202,11 +1235,11 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>16</v>
       </c>
@@ -1222,11 +1255,11 @@
       <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>16</v>
       </c>
@@ -1242,11 +1275,11 @@
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>16</v>
       </c>
@@ -1262,11 +1295,11 @@
       <c r="F16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1282,11 +1315,11 @@
       <c r="F17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1302,11 +1335,11 @@
       <c r="F18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1322,11 +1355,11 @@
       <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -1342,121 +1375,142 @@
       <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4" t="s">
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="M22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12">
+        <v>16</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="11">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="9">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K24" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="N24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="O24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="9" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M24" r:id="rId1" display="https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78" xr:uid="{3AC0071F-8D70-BB44-A8A5-C1AA090D5BE2}"/>
+    <hyperlink ref="N24" r:id="rId1" display="https://data.cityofnewyork.us/Public-Safety/NYPD-Hate-Crimes/bqiq-cu78" xr:uid="{3AC0071F-8D70-BB44-A8A5-C1AA090D5BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1464,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477931A-9538-2D4F-8C29-9AF6DC41AF4B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,9 +1601,32 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B742D31-B421-2342-94DA-F250825E0878}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,6 +1731,11 @@
         <v>125</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1661,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835CD16E-9469-4F48-86A9-EFB63C765DF7}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,38 +1757,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="B2" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1717,6 +1804,8 @@
     <hyperlink ref="B5" r:id="rId4" location="goal-16 " xr:uid="{D60BABF6-C08B-DA4A-B87A-17329FA946FF}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{A7C5BCF7-6AC9-464B-81AA-ECA2C2B86491}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{53C9954C-9CBD-4C4D-B0EC-D377077F5EAC}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{951852FD-2F9D-0C44-B268-6F473EFDD90D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{078A7ABB-08B4-384D-8108-638E699BE059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
